--- a/qieman/康世海/04_康世海_且慢.xlsx
+++ b/qieman/康世海/04_康世海_且慢.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\deal-record-temp\qieman\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4070753-8CE7-47C3-9907-D4E8E3815AA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="康世海_交易记录" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="120">
   <si>
     <t>id</t>
   </si>
@@ -82,6 +88,15 @@
     <t>2020-01-03</t>
   </si>
   <si>
+    <t>2020-01-14</t>
+  </si>
+  <si>
+    <t>2020-01-15</t>
+  </si>
+  <si>
+    <t>2020-02-04</t>
+  </si>
+  <si>
     <t>2020-02-24</t>
   </si>
   <si>
@@ -103,6 +118,9 @@
     <t>14:50:00</t>
   </si>
   <si>
+    <t>14:59:00</t>
+  </si>
+  <si>
     <t>11:15:11</t>
   </si>
   <si>
@@ -136,12 +154,12 @@
     <t>519776</t>
   </si>
   <si>
+    <t>519738</t>
+  </si>
+  <si>
     <t>164902</t>
   </si>
   <si>
-    <t>519738</t>
-  </si>
-  <si>
     <t>交银稳鑫短债债券A</t>
   </si>
   <si>
@@ -163,21 +181,30 @@
     <t>交银裕盈纯债债券A</t>
   </si>
   <si>
+    <t>交银周期回报灵活配置混合A</t>
+  </si>
+  <si>
     <t>交银信用添利债券(LOF)</t>
   </si>
   <si>
-    <t>交银周期回报灵活配置混合A</t>
-  </si>
-  <si>
     <t>买入</t>
   </si>
   <si>
     <t>卖出</t>
   </si>
   <si>
+    <t>现金申购</t>
+  </si>
+  <si>
+    <t>分红</t>
+  </si>
+  <si>
     <t>康世海_且慢</t>
   </si>
   <si>
+    <t>康世海_且慢_稳稳的幸福</t>
+  </si>
+  <si>
     <t>债券</t>
   </si>
   <si>
@@ -196,6 +223,9 @@
     <t>二级债</t>
   </si>
   <si>
+    <t>偏债</t>
+  </si>
+  <si>
     <t>我要稳稳的幸福_盈米宝购买_orderid=2019112700500254</t>
   </si>
   <si>
@@ -238,117 +268,130 @@
     <t>我要稳稳的幸福_盈米宝购买_orderid=2019112800720109</t>
   </si>
   <si>
+    <t>https://qieman.com/orders/PO2020010197JKSVPN6L8M子编号：2020010201369690</t>
+  </si>
+  <si>
+    <t>https://qieman.com/orders/PO2020010197JKSVPN6L8M子编号：自补充</t>
+  </si>
+  <si>
+    <t>https://qieman.com/orders/PO2020010197JKSVPN6L8M子编号：2020010201369694</t>
+  </si>
+  <si>
+    <t>我要稳稳的幸福_现金申购_orderid=2020010301689694</t>
+  </si>
+  <si>
+    <t>我要稳稳的幸福_自补分红</t>
+  </si>
+  <si>
+    <t>我要稳稳的幸福_赎回_orderid=2020022401079050</t>
+  </si>
+  <si>
+    <t>我要稳稳的幸福_赎回_orderid=2020022401079046</t>
+  </si>
+  <si>
+    <t>我要稳稳的幸福_赎回_orderid=2020022401079044</t>
+  </si>
+  <si>
+    <t>我要稳稳的幸福_赎回_orderid=2020022401079048</t>
+  </si>
+  <si>
+    <t>我要稳稳的幸福_赎回_orderid=2020022401079040</t>
+  </si>
+  <si>
+    <t>我要稳稳的幸福_赎回_orderid=2020022401079038</t>
+  </si>
+  <si>
+    <t>我要稳稳的幸福_赎回_orderid=2020022401079035</t>
+  </si>
+  <si>
+    <t>我要稳稳的幸福_赎回_orderid=2020022401079042</t>
+  </si>
+  <si>
+    <t>我要稳稳的幸福_赎回_orderid=2020022501736670</t>
+  </si>
+  <si>
+    <t>我要稳稳的幸福_赎回_orderid=2020022501736672</t>
+  </si>
+  <si>
+    <t>我要稳稳的幸福_赎回_orderid=2020022501736674</t>
+  </si>
+  <si>
+    <t>我要稳稳的幸福_赎回_orderid=2020022501736676</t>
+  </si>
+  <si>
+    <t>我要稳稳的幸福_赎回_orderid=2020022501736678</t>
+  </si>
+  <si>
+    <t>我要稳稳的幸福_赎回_orderid=2020022501736680</t>
+  </si>
+  <si>
+    <t>我要稳稳的幸福_赎回_orderid=2020022501736682</t>
+  </si>
+  <si>
+    <t>我要稳稳的幸福_赎回_orderid=2020022501736684</t>
+  </si>
+  <si>
+    <t>我要稳稳的幸福_赎回_orderid=2020022601908227</t>
+  </si>
+  <si>
+    <t>我要稳稳的幸福_赎回_orderid=2020022601908218</t>
+  </si>
+  <si>
+    <t>我要稳稳的幸福_赎回_orderid=2020022601908214</t>
+  </si>
+  <si>
+    <t>我要稳稳的幸福_赎回_orderid=2020022601908208</t>
+  </si>
+  <si>
+    <t>我要稳稳的幸福_赎回_orderid=2020022601908198</t>
+  </si>
+  <si>
+    <t>我要稳稳的幸福_赎回_orderid=2020022601908201</t>
+  </si>
+  <si>
+    <t>我要稳稳的幸福_赎回_orderid=2020022601908196</t>
+  </si>
+  <si>
+    <t>我要稳稳的幸福_赎回_orderid=2020022601908203</t>
+  </si>
+  <si>
+    <t>我要稳稳的幸福_赎回_orderid=2020022701999036</t>
+  </si>
+  <si>
+    <t>我要稳稳的幸福_赎回_orderid=2020022701998800</t>
+  </si>
+  <si>
+    <t>我要稳稳的幸福_赎回_orderid=2020022701998850</t>
+  </si>
+  <si>
+    <t>我要稳稳的幸福_赎回_orderid=2020022701998881</t>
+  </si>
+  <si>
+    <t>我要稳稳的幸福_赎回_orderid=2020022701998923</t>
+  </si>
+  <si>
+    <t>我要稳稳的幸福_赎回_orderid=2020022701998955</t>
+  </si>
+  <si>
+    <t>我要稳稳的幸福_赎回_orderid=2020022701999002</t>
+  </si>
+  <si>
+    <t>我要稳稳的幸福_赎回_orderid=2020022701999087</t>
+  </si>
+  <si>
     <t>我要稳稳的幸福_赎回至现金_orderid=2020010201369696</t>
-  </si>
-  <si>
-    <t>我要稳稳的幸福_现金申购_orderid=2020010301689694</t>
-  </si>
-  <si>
-    <t>我要稳稳的幸福_赎回_orderid=2020022401079050</t>
-  </si>
-  <si>
-    <t>我要稳稳的幸福_赎回_orderid=2020022401079046</t>
-  </si>
-  <si>
-    <t>我要稳稳的幸福_赎回_orderid=2020022401079044</t>
-  </si>
-  <si>
-    <t>我要稳稳的幸福_赎回_orderid=2020022401079048</t>
-  </si>
-  <si>
-    <t>我要稳稳的幸福_赎回_orderid=2020022401079040</t>
-  </si>
-  <si>
-    <t>我要稳稳的幸福_赎回_orderid=2020022401079038</t>
-  </si>
-  <si>
-    <t>我要稳稳的幸福_赎回_orderid=2020022401079035</t>
-  </si>
-  <si>
-    <t>我要稳稳的幸福_赎回_orderid=2020022401079042</t>
-  </si>
-  <si>
-    <t>我要稳稳的幸福_赎回_orderid=2020022501736670</t>
-  </si>
-  <si>
-    <t>我要稳稳的幸福_赎回_orderid=2020022501736672</t>
-  </si>
-  <si>
-    <t>我要稳稳的幸福_赎回_orderid=2020022501736674</t>
-  </si>
-  <si>
-    <t>我要稳稳的幸福_赎回_orderid=2020022501736676</t>
-  </si>
-  <si>
-    <t>我要稳稳的幸福_赎回_orderid=2020022501736678</t>
-  </si>
-  <si>
-    <t>我要稳稳的幸福_赎回_orderid=2020022501736680</t>
-  </si>
-  <si>
-    <t>我要稳稳的幸福_赎回_orderid=2020022501736682</t>
-  </si>
-  <si>
-    <t>我要稳稳的幸福_赎回_orderid=2020022501736684</t>
-  </si>
-  <si>
-    <t>我要稳稳的幸福_赎回_orderid=2020022601908227</t>
-  </si>
-  <si>
-    <t>我要稳稳的幸福_赎回_orderid=2020022601908218</t>
-  </si>
-  <si>
-    <t>我要稳稳的幸福_赎回_orderid=2020022601908214</t>
-  </si>
-  <si>
-    <t>我要稳稳的幸福_赎回_orderid=2020022601908208</t>
-  </si>
-  <si>
-    <t>我要稳稳的幸福_赎回_orderid=2020022601908198</t>
-  </si>
-  <si>
-    <t>我要稳稳的幸福_赎回_orderid=2020022601908201</t>
-  </si>
-  <si>
-    <t>我要稳稳的幸福_赎回_orderid=2020022601908196</t>
-  </si>
-  <si>
-    <t>我要稳稳的幸福_赎回_orderid=2020022601908203</t>
-  </si>
-  <si>
-    <t>我要稳稳的幸福_赎回_orderid=2020022701999036</t>
-  </si>
-  <si>
-    <t>我要稳稳的幸福_赎回_orderid=2020022701998800</t>
-  </si>
-  <si>
-    <t>我要稳稳的幸福_赎回_orderid=2020022701998850</t>
-  </si>
-  <si>
-    <t>我要稳稳的幸福_赎回_orderid=2020022701998881</t>
-  </si>
-  <si>
-    <t>我要稳稳的幸福_赎回_orderid=2020022701998923</t>
-  </si>
-  <si>
-    <t>我要稳稳的幸福_赎回_orderid=2020022701998955</t>
-  </si>
-  <si>
-    <t>我要稳稳的幸福_赎回_orderid=2020022701999002</t>
-  </si>
-  <si>
-    <t>我要稳稳的幸福_赎回_orderid=2020022701999087</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -356,17 +399,37 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -393,25 +456,43 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -453,7 +534,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -485,9 +566,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -519,6 +618,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -694,14 +811,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="72.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -757,7 +894,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -768,16 +905,16 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H2">
         <v>1.0282</v>
@@ -798,25 +935,25 @@
         <v>88000</v>
       </c>
       <c r="N2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="Q2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="R2">
         <v>512</v>
       </c>
       <c r="S2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -827,16 +964,16 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H3">
         <v>1.466</v>
@@ -857,25 +994,25 @@
         <v>8520</v>
       </c>
       <c r="N3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="Q3" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="R3">
         <v>411</v>
       </c>
       <c r="S3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -886,16 +1023,16 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H4">
         <v>1.075</v>
@@ -916,25 +1053,25 @@
         <v>69320</v>
       </c>
       <c r="N4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P4" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="Q4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="R4">
         <v>512</v>
       </c>
       <c r="S4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -945,16 +1082,16 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H5">
         <v>1.077</v>
@@ -963,7 +1100,7 @@
         <v>1.077</v>
       </c>
       <c r="J5">
-        <v>66390.71000000001</v>
+        <v>66390.710000000006</v>
       </c>
       <c r="K5">
         <v>71502.8</v>
@@ -975,25 +1112,25 @@
         <v>71560</v>
       </c>
       <c r="N5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P5" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="Q5" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="R5">
         <v>512</v>
       </c>
       <c r="S5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1004,16 +1141,16 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H6">
         <v>1.242</v>
@@ -1025,7 +1162,7 @@
         <v>29842.51</v>
       </c>
       <c r="K6">
-        <v>37064.4</v>
+        <v>37064.400000000001</v>
       </c>
       <c r="L6">
         <v>55.6</v>
@@ -1034,25 +1171,25 @@
         <v>37120</v>
       </c>
       <c r="N6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O6" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="P6" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="Q6" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="R6">
         <v>411</v>
       </c>
       <c r="S6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1063,16 +1200,16 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H7">
         <v>1.288</v>
@@ -1087,31 +1224,31 @@
         <v>49565.65</v>
       </c>
       <c r="L7">
-        <v>74.34999999999999</v>
+        <v>74.349999999999994</v>
       </c>
       <c r="M7">
         <v>49640</v>
       </c>
       <c r="N7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="P7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="Q7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="R7">
         <v>411</v>
       </c>
       <c r="S7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1122,16 +1259,16 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H8">
         <v>1.0783</v>
@@ -1140,7 +1277,7 @@
         <v>1.0783</v>
       </c>
       <c r="J8">
-        <v>70276.71000000001</v>
+        <v>70276.710000000006</v>
       </c>
       <c r="K8">
         <v>75779.38</v>
@@ -1152,25 +1289,25 @@
         <v>75840</v>
       </c>
       <c r="N8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O8" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P8" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="Q8" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="R8">
         <v>512</v>
       </c>
       <c r="S8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1181,16 +1318,16 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H9">
         <v>1.0785</v>
@@ -1211,25 +1348,25 @@
         <v>75880</v>
       </c>
       <c r="N9" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O9" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P9" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="Q9" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="R9">
         <v>512</v>
       </c>
       <c r="S9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1240,55 +1377,55 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H10">
-        <v>1.287</v>
+        <v>1.2869999999999999</v>
       </c>
       <c r="I10">
-        <v>1.287</v>
+        <v>1.2869999999999999</v>
       </c>
       <c r="J10">
-        <v>38481.52</v>
+        <v>38481.519999999997</v>
       </c>
       <c r="K10">
         <v>49525.71</v>
       </c>
       <c r="L10">
-        <v>74.29000000000001</v>
+        <v>74.290000000000006</v>
       </c>
       <c r="M10">
         <v>49600</v>
       </c>
       <c r="N10" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O10" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="P10" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="Q10" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="R10">
         <v>411</v>
       </c>
       <c r="S10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1299,16 +1436,16 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H11">
         <v>1.242</v>
@@ -1320,7 +1457,7 @@
         <v>29842.51</v>
       </c>
       <c r="K11">
-        <v>37064.4</v>
+        <v>37064.400000000001</v>
       </c>
       <c r="L11">
         <v>55.6</v>
@@ -1329,25 +1466,25 @@
         <v>37120</v>
       </c>
       <c r="N11" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O11" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="P11" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="Q11" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="R11">
         <v>411</v>
       </c>
       <c r="S11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1358,22 +1495,22 @@
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H12">
-        <v>1.078</v>
+        <v>1.0780000000000001</v>
       </c>
       <c r="I12">
-        <v>1.078</v>
+        <v>1.0780000000000001</v>
       </c>
       <c r="J12">
         <v>66329.13</v>
@@ -1388,25 +1525,25 @@
         <v>71560</v>
       </c>
       <c r="N12" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O12" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P12" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="Q12" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="R12">
         <v>512</v>
       </c>
       <c r="S12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1417,16 +1554,16 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H13">
         <v>1.075</v>
@@ -1447,25 +1584,25 @@
         <v>69320</v>
       </c>
       <c r="N13" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O13" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P13" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="Q13" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="R13">
         <v>512</v>
       </c>
       <c r="S13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1476,28 +1613,28 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H14">
-        <v>1.461</v>
+        <v>1.4610000000000001</v>
       </c>
       <c r="I14">
-        <v>1.461</v>
+        <v>1.4610000000000001</v>
       </c>
       <c r="J14">
         <v>5795.55</v>
       </c>
       <c r="K14">
-        <v>8467.299999999999</v>
+        <v>8467.2999999999993</v>
       </c>
       <c r="L14">
         <v>12.7</v>
@@ -1506,25 +1643,25 @@
         <v>8480</v>
       </c>
       <c r="N14" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O14" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="P14" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="Q14" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="R14">
         <v>411</v>
       </c>
       <c r="S14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1535,16 +1672,16 @@
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H15">
         <v>1.0283</v>
@@ -1553,10 +1690,10 @@
         <v>1.0283</v>
       </c>
       <c r="J15">
-        <v>85591.36</v>
+        <v>85591.360000000001</v>
       </c>
       <c r="K15">
-        <v>88013.60000000001</v>
+        <v>88013.6</v>
       </c>
       <c r="L15">
         <v>26.4</v>
@@ -1565,25 +1702,25 @@
         <v>88040</v>
       </c>
       <c r="N15" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O15" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P15" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="Q15" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="R15">
         <v>512</v>
       </c>
       <c r="S15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1594,291 +1731,291 @@
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H16">
-        <v>1.0832</v>
+        <v>1.0831999999999999</v>
       </c>
       <c r="I16">
-        <v>1.0832</v>
+        <v>1.0831999999999999</v>
       </c>
       <c r="J16">
         <v>140577.44</v>
       </c>
       <c r="K16">
-        <v>152273.48</v>
+        <v>152273.48000000001</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>152273.48</v>
+        <v>152273.48000000001</v>
       </c>
       <c r="N16" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O16" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P16" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="Q16" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="R16">
         <v>512</v>
       </c>
       <c r="S16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="A17" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17">
-        <v>1.146</v>
-      </c>
-      <c r="I17">
-        <v>1.146</v>
-      </c>
-      <c r="J17">
-        <v>132767.68</v>
-      </c>
-      <c r="K17">
-        <v>152151.76</v>
-      </c>
-      <c r="L17">
-        <v>121.72</v>
-      </c>
-      <c r="M17">
-        <v>152273.48</v>
-      </c>
-      <c r="N17" t="s">
+      <c r="C17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1.0326</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1.0326</v>
+      </c>
+      <c r="J17" s="3">
+        <v>78123.55</v>
+      </c>
+      <c r="K17" s="3">
+        <v>80670.38</v>
+      </c>
+      <c r="L17" s="3">
+        <v>385.37</v>
+      </c>
+      <c r="M17" s="3">
+        <v>80285.009999999995</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R17" s="3">
+        <v>512</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="O17" t="s">
-        <v>54</v>
-      </c>
-      <c r="P17" t="s">
+      <c r="G18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1.2110000000000001</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1.63</v>
+      </c>
+      <c r="J18" s="3">
+        <v>66296.460000000006</v>
+      </c>
+      <c r="K18" s="3">
+        <v>80285.009999999995</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>80285.009999999995</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R18" s="3">
+        <v>411</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>18</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Q17" t="s">
-        <v>58</v>
-      </c>
-      <c r="R17">
+      <c r="H19" s="3">
+        <v>1.0326</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1.0326</v>
+      </c>
+      <c r="J19" s="3">
+        <v>14826.58</v>
+      </c>
+      <c r="K19" s="3">
+        <v>15309.93</v>
+      </c>
+      <c r="L19" s="3">
+        <v>30.56</v>
+      </c>
+      <c r="M19" s="3">
+        <v>15279.37</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R19" s="3">
         <v>512</v>
       </c>
-      <c r="S17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" t="s">
-        <v>52</v>
-      </c>
-      <c r="H18">
-        <v>1.33</v>
-      </c>
-      <c r="I18">
-        <v>1.33</v>
-      </c>
-      <c r="J18">
-        <v>18807.32</v>
-      </c>
-      <c r="K18">
-        <v>24888.67</v>
-      </c>
-      <c r="L18">
-        <v>125.07</v>
-      </c>
-      <c r="M18">
-        <v>24763.6</v>
-      </c>
-      <c r="N18" t="s">
-        <v>53</v>
-      </c>
-      <c r="O18" t="s">
+      <c r="S19" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="P18" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>59</v>
-      </c>
-      <c r="R18">
-        <v>411</v>
-      </c>
-      <c r="S18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19">
-        <v>1.176</v>
-      </c>
-      <c r="I19">
-        <v>1.176</v>
-      </c>
-      <c r="J19">
-        <v>16913.91</v>
-      </c>
-      <c r="K19">
-        <v>19791.31</v>
-      </c>
-      <c r="L19">
-        <v>99.45</v>
-      </c>
-      <c r="M19">
-        <v>19691.86</v>
-      </c>
-      <c r="N19" t="s">
-        <v>53</v>
-      </c>
-      <c r="O19" t="s">
-        <v>55</v>
-      </c>
-      <c r="P19" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>59</v>
-      </c>
-      <c r="R19">
-        <v>411</v>
-      </c>
-      <c r="S19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" t="s">
-        <v>52</v>
-      </c>
-      <c r="H20">
-        <v>1.083</v>
-      </c>
-      <c r="I20">
-        <v>1.083</v>
-      </c>
-      <c r="J20">
-        <v>32764.51</v>
-      </c>
-      <c r="K20">
-        <v>35448.48</v>
-      </c>
-      <c r="L20">
-        <v>35.48</v>
-      </c>
-      <c r="M20">
-        <v>35413</v>
-      </c>
-      <c r="N20" t="s">
-        <v>53</v>
-      </c>
-      <c r="O20" t="s">
-        <v>54</v>
-      </c>
-      <c r="P20" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>58</v>
-      </c>
-      <c r="R20">
+      <c r="H20" s="3">
+        <v>1.08</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1.3180000000000001</v>
+      </c>
+      <c r="J20" s="3">
+        <v>14147.56</v>
+      </c>
+      <c r="K20" s="3">
+        <v>15279.37</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>15279.37</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R20" s="3">
         <v>512</v>
       </c>
-      <c r="S20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="S20" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1886,58 +2023,58 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G21" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H21">
-        <v>1.278</v>
+        <v>1.1459999999999999</v>
       </c>
       <c r="I21">
-        <v>1.278</v>
+        <v>1.1459999999999999</v>
       </c>
       <c r="J21">
-        <v>14584.91</v>
+        <v>132767.67999999999</v>
       </c>
       <c r="K21">
-        <v>18546.31</v>
+        <v>152273.48000000001</v>
       </c>
       <c r="L21">
-        <v>93.2</v>
+        <v>121.72</v>
       </c>
       <c r="M21">
-        <v>18453.11</v>
+        <v>152273.48000000001</v>
       </c>
       <c r="N21" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O21" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="P21" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="Q21" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="R21">
-        <v>411</v>
+        <v>512</v>
       </c>
       <c r="S21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1948,55 +2085,55 @@
         <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G22" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H22">
-        <v>1.743</v>
+        <v>1.0720000000000001</v>
       </c>
       <c r="I22">
-        <v>1.743</v>
+        <v>1.3220000000000001</v>
       </c>
       <c r="J22">
-        <v>2834.28</v>
+        <v>1600.88</v>
       </c>
       <c r="K22">
-        <v>4915.45</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>24.7</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>4890.75</v>
+        <v>0</v>
       </c>
       <c r="N22" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="O22" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="P22" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="Q22" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="R22">
-        <v>411</v>
+        <v>512</v>
       </c>
       <c r="S22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2007,7 +2144,7 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E23" t="s">
         <v>40</v>
@@ -2016,46 +2153,46 @@
         <v>49</v>
       </c>
       <c r="G23" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H23">
-        <v>1.161</v>
+        <v>1.073</v>
       </c>
       <c r="I23">
-        <v>1.161</v>
+        <v>1.3540000000000001</v>
       </c>
       <c r="J23">
-        <v>32443.72</v>
+        <v>1360.6</v>
       </c>
       <c r="K23">
-        <v>37629.49</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>37.67</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>37591.82</v>
+        <v>0</v>
       </c>
       <c r="N23" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="O23" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P23" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="Q23" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="R23">
         <v>512</v>
       </c>
       <c r="S23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2063,58 +2200,58 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G24" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H24">
-        <v>1.0308</v>
+        <v>1.181</v>
       </c>
       <c r="I24">
-        <v>1.0308</v>
+        <v>1.6319999999999999</v>
       </c>
       <c r="J24">
-        <v>19295.83</v>
+        <v>1796.35</v>
       </c>
       <c r="K24">
-        <v>19890.14</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19890.14</v>
+        <v>0</v>
       </c>
       <c r="N24" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="O24" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="P24" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="Q24" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="R24">
-        <v>512</v>
+        <v>411</v>
       </c>
       <c r="S24" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2122,58 +2259,58 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G25" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H25">
-        <v>1.09</v>
+        <v>1.0273000000000001</v>
       </c>
       <c r="I25">
-        <v>1.09</v>
+        <v>1.0373000000000001</v>
       </c>
       <c r="J25">
-        <v>35338.25</v>
+        <v>761.24</v>
       </c>
       <c r="K25">
-        <v>38480.17</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>38.52</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>38441.65</v>
+        <v>0</v>
       </c>
       <c r="N25" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="O25" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P25" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="Q25" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="R25">
         <v>512</v>
       </c>
       <c r="S25" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2181,58 +2318,58 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G26" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H26">
-        <v>1.0309</v>
+        <v>1.1519999999999999</v>
       </c>
       <c r="I26">
-        <v>1.0309</v>
+        <v>1.6220000000000001</v>
       </c>
       <c r="J26">
-        <v>19291.57</v>
+        <v>1123.06</v>
       </c>
       <c r="K26">
-        <v>19887.68</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>19887.68</v>
+        <v>0</v>
       </c>
       <c r="N26" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="O26" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="P26" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="Q26" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="R26">
-        <v>512</v>
+        <v>411</v>
       </c>
       <c r="S26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2240,58 +2377,58 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G27" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H27">
-        <v>1.161</v>
+        <v>1.33</v>
       </c>
       <c r="I27">
-        <v>1.161</v>
+        <v>1.33</v>
       </c>
       <c r="J27">
-        <v>32436.57</v>
+        <v>18807.32</v>
       </c>
       <c r="K27">
-        <v>37621.2</v>
+        <v>24888.67</v>
       </c>
       <c r="L27">
-        <v>37.66</v>
+        <v>125.07</v>
       </c>
       <c r="M27">
-        <v>37583.54</v>
+        <v>24763.599999999999</v>
       </c>
       <c r="N27" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O27" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="P27" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="Q27" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="R27">
-        <v>512</v>
+        <v>411</v>
       </c>
       <c r="S27" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2299,58 +2436,58 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G28" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H28">
-        <v>1.74</v>
+        <v>1.1759999999999999</v>
       </c>
       <c r="I28">
-        <v>1.74</v>
+        <v>1.1759999999999999</v>
       </c>
       <c r="J28">
-        <v>2833.66</v>
+        <v>16913.91</v>
       </c>
       <c r="K28">
-        <v>4905.92</v>
+        <v>19791.310000000001</v>
       </c>
       <c r="L28">
-        <v>24.65</v>
+        <v>99.45</v>
       </c>
       <c r="M28">
-        <v>4881.27</v>
+        <v>19691.86</v>
       </c>
       <c r="N28" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O28" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="P28" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="Q28" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="R28">
         <v>411</v>
       </c>
       <c r="S28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2358,58 +2495,58 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F29" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G29" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H29">
-        <v>1.09</v>
+        <v>1.083</v>
       </c>
       <c r="I29">
-        <v>1.09</v>
+        <v>1.083</v>
       </c>
       <c r="J29">
-        <v>35330.46</v>
+        <v>32764.51</v>
       </c>
       <c r="K29">
-        <v>38471.69</v>
+        <v>35448.480000000003</v>
       </c>
       <c r="L29">
-        <v>38.51</v>
+        <v>35.479999999999997</v>
       </c>
       <c r="M29">
-        <v>38433.18</v>
+        <v>35413</v>
       </c>
       <c r="N29" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O29" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P29" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="Q29" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="R29">
         <v>512</v>
       </c>
       <c r="S29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2417,58 +2554,58 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G30" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H30">
-        <v>1.083</v>
+        <v>1.278</v>
       </c>
       <c r="I30">
-        <v>1.083</v>
+        <v>1.278</v>
       </c>
       <c r="J30">
-        <v>32757.29</v>
+        <v>14584.91</v>
       </c>
       <c r="K30">
-        <v>35440.67</v>
+        <v>18546.310000000001</v>
       </c>
       <c r="L30">
-        <v>35.48</v>
+        <v>93.2</v>
       </c>
       <c r="M30">
-        <v>35405.19</v>
+        <v>18453.11</v>
       </c>
       <c r="N30" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O30" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="P30" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="Q30" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="R30">
-        <v>512</v>
+        <v>411</v>
       </c>
       <c r="S30" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2476,58 +2613,58 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F31" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G31" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H31">
-        <v>1.175</v>
+        <v>1.7430000000000001</v>
       </c>
       <c r="I31">
-        <v>1.175</v>
+        <v>1.7430000000000001</v>
       </c>
       <c r="J31">
-        <v>16910.18</v>
+        <v>2834.28</v>
       </c>
       <c r="K31">
-        <v>19770.11</v>
+        <v>4915.45</v>
       </c>
       <c r="L31">
-        <v>99.34999999999999</v>
+        <v>24.7</v>
       </c>
       <c r="M31">
-        <v>19670.76</v>
+        <v>4890.75</v>
       </c>
       <c r="N31" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O31" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="P31" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="Q31" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="R31">
         <v>411</v>
       </c>
       <c r="S31" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2535,58 +2672,58 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G32" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H32">
-        <v>1.277</v>
+        <v>1.161</v>
       </c>
       <c r="I32">
-        <v>1.277</v>
+        <v>1.161</v>
       </c>
       <c r="J32">
-        <v>14581.69</v>
+        <v>32443.72</v>
       </c>
       <c r="K32">
-        <v>18527.72</v>
+        <v>37629.49</v>
       </c>
       <c r="L32">
-        <v>93.09999999999999</v>
+        <v>37.67</v>
       </c>
       <c r="M32">
-        <v>18434.62</v>
+        <v>37591.82</v>
       </c>
       <c r="N32" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O32" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="P32" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="Q32" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="R32">
-        <v>411</v>
+        <v>512</v>
       </c>
       <c r="S32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2594,58 +2731,58 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G33" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H33">
-        <v>1.329</v>
+        <v>1.0307999999999999</v>
       </c>
       <c r="I33">
-        <v>1.329</v>
+        <v>1.0307999999999999</v>
       </c>
       <c r="J33">
-        <v>18803.17</v>
+        <v>19295.830000000002</v>
       </c>
       <c r="K33">
-        <v>24864.46</v>
+        <v>19890.14</v>
       </c>
       <c r="L33">
-        <v>124.95</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>24739.51</v>
+        <v>19890.14</v>
       </c>
       <c r="N33" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O33" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="P33" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="Q33" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="R33">
-        <v>411</v>
+        <v>512</v>
       </c>
       <c r="S33" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2653,58 +2790,58 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G34" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H34">
-        <v>1.33</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="I34">
-        <v>1.33</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="J34">
-        <v>20545.16</v>
+        <v>35338.25</v>
       </c>
       <c r="K34">
-        <v>27188.43</v>
+        <v>38480.17</v>
       </c>
       <c r="L34">
-        <v>136.63</v>
+        <v>38.520000000000003</v>
       </c>
       <c r="M34">
-        <v>27051.8</v>
+        <v>38441.65</v>
       </c>
       <c r="N34" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O34" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="P34" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="Q34" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="R34">
-        <v>411</v>
+        <v>512</v>
       </c>
       <c r="S34" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2712,10 +2849,10 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E35" t="s">
         <v>37</v>
@@ -2724,46 +2861,46 @@
         <v>46</v>
       </c>
       <c r="G35" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H35">
-        <v>1.277</v>
+        <v>1.0308999999999999</v>
       </c>
       <c r="I35">
-        <v>1.277</v>
+        <v>1.0308999999999999</v>
       </c>
       <c r="J35">
-        <v>15932.58</v>
+        <v>19291.57</v>
       </c>
       <c r="K35">
-        <v>20244.17</v>
+        <v>19887.68</v>
       </c>
       <c r="L35">
-        <v>101.73</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>20142.44</v>
+        <v>19887.68</v>
       </c>
       <c r="N35" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O35" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="P35" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="Q35" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="R35">
-        <v>411</v>
+        <v>512</v>
       </c>
       <c r="S35" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2771,58 +2908,58 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G36" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H36">
-        <v>1.175</v>
+        <v>1.161</v>
       </c>
       <c r="I36">
-        <v>1.175</v>
+        <v>1.161</v>
       </c>
       <c r="J36">
-        <v>18476.79</v>
+        <v>32436.57</v>
       </c>
       <c r="K36">
-        <v>21601.68</v>
+        <v>37621.199999999997</v>
       </c>
       <c r="L36">
-        <v>108.55</v>
+        <v>37.659999999999997</v>
       </c>
       <c r="M36">
-        <v>21493.13</v>
+        <v>37583.54</v>
       </c>
       <c r="N36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O36" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="P36" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="Q36" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="R36">
-        <v>411</v>
+        <v>512</v>
       </c>
       <c r="S36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2830,58 +2967,58 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E37" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G37" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H37">
-        <v>1.084</v>
+        <v>1.74</v>
       </c>
       <c r="I37">
-        <v>1.084</v>
+        <v>1.74</v>
       </c>
       <c r="J37">
-        <v>35792.03</v>
+        <v>2833.66</v>
       </c>
       <c r="K37">
-        <v>38759.76</v>
+        <v>4905.92</v>
       </c>
       <c r="L37">
-        <v>38.8</v>
+        <v>24.65</v>
       </c>
       <c r="M37">
-        <v>38720.96</v>
+        <v>4881.2700000000004</v>
       </c>
       <c r="N37" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O37" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="P37" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="Q37" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="R37">
-        <v>512</v>
+        <v>411</v>
       </c>
       <c r="S37" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2889,58 +3026,58 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G38" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H38">
-        <v>1.162</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="I38">
-        <v>1.162</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="J38">
-        <v>35441.6</v>
+        <v>35330.46</v>
       </c>
       <c r="K38">
-        <v>41141.96</v>
+        <v>38471.69</v>
       </c>
       <c r="L38">
-        <v>41.18</v>
+        <v>38.51</v>
       </c>
       <c r="M38">
-        <v>41100.78</v>
+        <v>38433.18</v>
       </c>
       <c r="N38" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O38" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P38" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="Q38" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="R38">
         <v>512</v>
       </c>
       <c r="S38" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2948,58 +3085,58 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D39" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E39" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F39" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G39" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H39">
-        <v>1.717</v>
+        <v>1.083</v>
       </c>
       <c r="I39">
-        <v>1.717</v>
+        <v>1.083</v>
       </c>
       <c r="J39">
-        <v>3096.18</v>
+        <v>32757.29</v>
       </c>
       <c r="K39">
-        <v>5289.56</v>
+        <v>35440.67</v>
       </c>
       <c r="L39">
-        <v>26.58</v>
+        <v>35.479999999999997</v>
       </c>
       <c r="M39">
-        <v>5262.98</v>
+        <v>35405.19</v>
       </c>
       <c r="N39" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O39" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="P39" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="Q39" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="R39">
-        <v>411</v>
+        <v>512</v>
       </c>
       <c r="S39" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3007,58 +3144,58 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D40" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E40" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G40" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H40">
-        <v>1.0311</v>
+        <v>1.175</v>
       </c>
       <c r="I40">
-        <v>1.0311</v>
+        <v>1.175</v>
       </c>
       <c r="J40">
-        <v>21078.81</v>
+        <v>16910.18</v>
       </c>
       <c r="K40">
-        <v>21734.36</v>
+        <v>19770.11</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>99.35</v>
       </c>
       <c r="M40">
-        <v>21734.36</v>
+        <v>19670.759999999998</v>
       </c>
       <c r="N40" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O40" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="P40" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="Q40" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="R40">
-        <v>512</v>
+        <v>411</v>
       </c>
       <c r="S40" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3066,58 +3203,58 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D41" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E41" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F41" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G41" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H41">
-        <v>1.091</v>
+        <v>1.2769999999999999</v>
       </c>
       <c r="I41">
-        <v>1.091</v>
+        <v>1.2769999999999999</v>
       </c>
       <c r="J41">
-        <v>38603.59</v>
+        <v>14581.69</v>
       </c>
       <c r="K41">
-        <v>42074.4</v>
+        <v>18527.72</v>
       </c>
       <c r="L41">
-        <v>42.12</v>
+        <v>93.1</v>
       </c>
       <c r="M41">
-        <v>42032.28</v>
+        <v>18434.62</v>
       </c>
       <c r="N41" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O41" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="P41" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="Q41" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="R41">
-        <v>512</v>
+        <v>411</v>
       </c>
       <c r="S41" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3125,58 +3262,58 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D42" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E42" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F42" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G42" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H42">
-        <v>1.278</v>
+        <v>1.329</v>
       </c>
       <c r="I42">
-        <v>1.278</v>
+        <v>1.329</v>
       </c>
       <c r="J42">
-        <v>14585.84</v>
+        <v>18803.169999999998</v>
       </c>
       <c r="K42">
-        <v>18547.5</v>
+        <v>24864.46</v>
       </c>
       <c r="L42">
-        <v>93.2</v>
+        <v>124.95</v>
       </c>
       <c r="M42">
-        <v>18454.3</v>
+        <v>24739.51</v>
       </c>
       <c r="N42" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O42" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="P42" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="Q42" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="R42">
         <v>411</v>
       </c>
       <c r="S42" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3184,58 +3321,58 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D43" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E43" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G43" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H43">
-        <v>1.0313</v>
+        <v>1.33</v>
       </c>
       <c r="I43">
-        <v>1.0313</v>
+        <v>1.33</v>
       </c>
       <c r="J43">
-        <v>19297.06</v>
+        <v>20545.16</v>
       </c>
       <c r="K43">
-        <v>19900.27</v>
+        <v>27188.43</v>
       </c>
       <c r="L43">
-        <v>0.79</v>
+        <v>136.63</v>
       </c>
       <c r="M43">
-        <v>19899.48</v>
+        <v>27051.8</v>
       </c>
       <c r="N43" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O43" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="P43" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="Q43" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="R43">
-        <v>512</v>
+        <v>411</v>
       </c>
       <c r="S43" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3243,58 +3380,58 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D44" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G44" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H44">
-        <v>1.162</v>
+        <v>1.2769999999999999</v>
       </c>
       <c r="I44">
-        <v>1.162</v>
+        <v>1.2769999999999999</v>
       </c>
       <c r="J44">
-        <v>32445.79</v>
+        <v>15932.58</v>
       </c>
       <c r="K44">
-        <v>37664.31</v>
+        <v>20244.169999999998</v>
       </c>
       <c r="L44">
-        <v>37.7</v>
+        <v>101.73</v>
       </c>
       <c r="M44">
-        <v>37626.61</v>
+        <v>20142.439999999999</v>
       </c>
       <c r="N44" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O44" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="P44" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="Q44" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="R44">
-        <v>512</v>
+        <v>411</v>
       </c>
       <c r="S44" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3302,58 +3439,58 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D45" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E45" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G45" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H45">
-        <v>1.728</v>
+        <v>1.175</v>
       </c>
       <c r="I45">
-        <v>1.728</v>
+        <v>1.175</v>
       </c>
       <c r="J45">
-        <v>2834.46</v>
+        <v>18476.79</v>
       </c>
       <c r="K45">
-        <v>4873.46</v>
+        <v>21601.68</v>
       </c>
       <c r="L45">
-        <v>24.49</v>
+        <v>108.55</v>
       </c>
       <c r="M45">
-        <v>4848.97</v>
+        <v>21493.13</v>
       </c>
       <c r="N45" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O45" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="P45" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="Q45" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="R45">
         <v>411</v>
       </c>
       <c r="S45" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3361,58 +3498,58 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D46" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E46" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F46" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G46" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H46">
-        <v>1.091</v>
+        <v>1.0840000000000001</v>
       </c>
       <c r="I46">
-        <v>1.091</v>
+        <v>1.0840000000000001</v>
       </c>
       <c r="J46">
-        <v>35340.5</v>
+        <v>35792.03</v>
       </c>
       <c r="K46">
-        <v>38517.94</v>
+        <v>38759.760000000002</v>
       </c>
       <c r="L46">
-        <v>38.55</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="M46">
-        <v>38479.39</v>
+        <v>38720.959999999999</v>
       </c>
       <c r="N46" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O46" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P46" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="Q46" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="R46">
         <v>512</v>
       </c>
       <c r="S46" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3420,58 +3557,58 @@
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D47" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E47" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G47" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H47">
-        <v>1.084</v>
+        <v>1.1619999999999999</v>
       </c>
       <c r="I47">
-        <v>1.084</v>
+        <v>1.1619999999999999</v>
       </c>
       <c r="J47">
-        <v>32766.61</v>
+        <v>35441.599999999999</v>
       </c>
       <c r="K47">
-        <v>35483.5</v>
+        <v>41141.96</v>
       </c>
       <c r="L47">
-        <v>35.51</v>
+        <v>41.18</v>
       </c>
       <c r="M47">
-        <v>35447.99</v>
+        <v>41100.78</v>
       </c>
       <c r="N47" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O47" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P47" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="Q47" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="R47">
         <v>512</v>
       </c>
       <c r="S47" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3479,58 +3616,58 @@
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D48" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E48" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F48" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G48" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H48">
-        <v>1.175</v>
+        <v>1.7170000000000001</v>
       </c>
       <c r="I48">
-        <v>1.175</v>
+        <v>1.7170000000000001</v>
       </c>
       <c r="J48">
-        <v>16914.99</v>
+        <v>3096.18</v>
       </c>
       <c r="K48">
-        <v>19775.74</v>
+        <v>5289.56</v>
       </c>
       <c r="L48">
-        <v>99.37</v>
+        <v>26.58</v>
       </c>
       <c r="M48">
-        <v>19676.37</v>
+        <v>5262.98</v>
       </c>
       <c r="N48" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O48" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="P48" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="Q48" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="R48">
         <v>411</v>
       </c>
       <c r="S48" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3538,58 +3675,597 @@
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D49" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E49" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" t="s">
+        <v>46</v>
+      </c>
+      <c r="G49" t="s">
+        <v>56</v>
+      </c>
+      <c r="H49">
+        <v>1.0310999999999999</v>
+      </c>
+      <c r="I49">
+        <v>1.0310999999999999</v>
+      </c>
+      <c r="J49">
+        <v>21078.81</v>
+      </c>
+      <c r="K49">
+        <v>21734.36</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>21734.36</v>
+      </c>
+      <c r="N49" t="s">
+        <v>59</v>
+      </c>
+      <c r="O49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P49" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>65</v>
+      </c>
+      <c r="R49">
+        <v>512</v>
+      </c>
+      <c r="S49" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" t="s">
+        <v>35</v>
+      </c>
+      <c r="E50" t="s">
+        <v>39</v>
+      </c>
+      <c r="F50" t="s">
+        <v>48</v>
+      </c>
+      <c r="G50" t="s">
+        <v>56</v>
+      </c>
+      <c r="H50">
+        <v>1.091</v>
+      </c>
+      <c r="I50">
+        <v>1.091</v>
+      </c>
+      <c r="J50">
+        <v>38603.589999999997</v>
+      </c>
+      <c r="K50">
+        <v>42074.400000000001</v>
+      </c>
+      <c r="L50">
+        <v>42.12</v>
+      </c>
+      <c r="M50">
+        <v>42032.28</v>
+      </c>
+      <c r="N50" t="s">
+        <v>59</v>
+      </c>
+      <c r="O50" t="s">
+        <v>61</v>
+      </c>
+      <c r="P50" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>65</v>
+      </c>
+      <c r="R50">
+        <v>512</v>
+      </c>
+      <c r="S50" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" t="s">
+        <v>41</v>
+      </c>
+      <c r="F51" t="s">
+        <v>50</v>
+      </c>
+      <c r="G51" t="s">
+        <v>56</v>
+      </c>
+      <c r="H51">
+        <v>1.278</v>
+      </c>
+      <c r="I51">
+        <v>1.278</v>
+      </c>
+      <c r="J51">
+        <v>14585.84</v>
+      </c>
+      <c r="K51">
+        <v>18547.5</v>
+      </c>
+      <c r="L51">
+        <v>93.2</v>
+      </c>
+      <c r="M51">
+        <v>18454.3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>59</v>
+      </c>
+      <c r="O51" t="s">
+        <v>62</v>
+      </c>
+      <c r="P51" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>66</v>
+      </c>
+      <c r="R51">
+        <v>411</v>
+      </c>
+      <c r="S51" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" t="s">
+        <v>36</v>
+      </c>
+      <c r="E52" t="s">
+        <v>37</v>
+      </c>
+      <c r="F52" t="s">
+        <v>46</v>
+      </c>
+      <c r="G52" t="s">
+        <v>56</v>
+      </c>
+      <c r="H52">
+        <v>1.0313000000000001</v>
+      </c>
+      <c r="I52">
+        <v>1.0313000000000001</v>
+      </c>
+      <c r="J52">
+        <v>19297.060000000001</v>
+      </c>
+      <c r="K52">
+        <v>19900.27</v>
+      </c>
+      <c r="L52">
+        <v>0.79</v>
+      </c>
+      <c r="M52">
+        <v>19899.48</v>
+      </c>
+      <c r="N52" t="s">
+        <v>59</v>
+      </c>
+      <c r="O52" t="s">
+        <v>61</v>
+      </c>
+      <c r="P52" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>65</v>
+      </c>
+      <c r="R52">
+        <v>512</v>
+      </c>
+      <c r="S52" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" t="s">
+        <v>45</v>
+      </c>
+      <c r="F53" t="s">
+        <v>54</v>
+      </c>
+      <c r="G53" t="s">
+        <v>56</v>
+      </c>
+      <c r="H53">
+        <v>1.1619999999999999</v>
+      </c>
+      <c r="I53">
+        <v>1.1619999999999999</v>
+      </c>
+      <c r="J53">
+        <v>32445.79</v>
+      </c>
+      <c r="K53">
+        <v>37664.31</v>
+      </c>
+      <c r="L53">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="M53">
+        <v>37626.61</v>
+      </c>
+      <c r="N53" t="s">
+        <v>59</v>
+      </c>
+      <c r="O53" t="s">
+        <v>61</v>
+      </c>
+      <c r="P53" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>65</v>
+      </c>
+      <c r="R53">
+        <v>512</v>
+      </c>
+      <c r="S53" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" t="s">
+        <v>36</v>
+      </c>
+      <c r="E54" t="s">
         <v>38</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F54" t="s">
         <v>47</v>
       </c>
-      <c r="G49" t="s">
-        <v>52</v>
-      </c>
-      <c r="H49">
+      <c r="G54" t="s">
+        <v>56</v>
+      </c>
+      <c r="H54">
+        <v>1.728</v>
+      </c>
+      <c r="I54">
+        <v>1.728</v>
+      </c>
+      <c r="J54">
+        <v>2834.46</v>
+      </c>
+      <c r="K54">
+        <v>4873.46</v>
+      </c>
+      <c r="L54">
+        <v>24.49</v>
+      </c>
+      <c r="M54">
+        <v>4848.97</v>
+      </c>
+      <c r="N54" t="s">
+        <v>59</v>
+      </c>
+      <c r="O54" t="s">
+        <v>62</v>
+      </c>
+      <c r="P54" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>66</v>
+      </c>
+      <c r="R54">
+        <v>411</v>
+      </c>
+      <c r="S54" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" t="s">
+        <v>39</v>
+      </c>
+      <c r="F55" t="s">
+        <v>48</v>
+      </c>
+      <c r="G55" t="s">
+        <v>56</v>
+      </c>
+      <c r="H55">
+        <v>1.091</v>
+      </c>
+      <c r="I55">
+        <v>1.091</v>
+      </c>
+      <c r="J55">
+        <v>35340.5</v>
+      </c>
+      <c r="K55">
+        <v>38517.94</v>
+      </c>
+      <c r="L55">
+        <v>38.549999999999997</v>
+      </c>
+      <c r="M55">
+        <v>38479.39</v>
+      </c>
+      <c r="N55" t="s">
+        <v>59</v>
+      </c>
+      <c r="O55" t="s">
+        <v>61</v>
+      </c>
+      <c r="P55" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>65</v>
+      </c>
+      <c r="R55">
+        <v>512</v>
+      </c>
+      <c r="S55" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" t="s">
+        <v>40</v>
+      </c>
+      <c r="F56" t="s">
+        <v>49</v>
+      </c>
+      <c r="G56" t="s">
+        <v>56</v>
+      </c>
+      <c r="H56">
+        <v>1.0840000000000001</v>
+      </c>
+      <c r="I56">
+        <v>1.0840000000000001</v>
+      </c>
+      <c r="J56">
+        <v>32766.61</v>
+      </c>
+      <c r="K56">
+        <v>35483.5</v>
+      </c>
+      <c r="L56">
+        <v>35.51</v>
+      </c>
+      <c r="M56">
+        <v>35447.99</v>
+      </c>
+      <c r="N56" t="s">
+        <v>59</v>
+      </c>
+      <c r="O56" t="s">
+        <v>61</v>
+      </c>
+      <c r="P56" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>65</v>
+      </c>
+      <c r="R56">
+        <v>512</v>
+      </c>
+      <c r="S56" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>53</v>
+      </c>
+      <c r="G57" t="s">
+        <v>56</v>
+      </c>
+      <c r="H57">
+        <v>1.175</v>
+      </c>
+      <c r="I57">
+        <v>1.175</v>
+      </c>
+      <c r="J57">
+        <v>16914.990000000002</v>
+      </c>
+      <c r="K57">
+        <v>19775.740000000002</v>
+      </c>
+      <c r="L57">
+        <v>99.37</v>
+      </c>
+      <c r="M57">
+        <v>19676.37</v>
+      </c>
+      <c r="N57" t="s">
+        <v>59</v>
+      </c>
+      <c r="O57" t="s">
+        <v>62</v>
+      </c>
+      <c r="P57" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>66</v>
+      </c>
+      <c r="R57">
+        <v>411</v>
+      </c>
+      <c r="S57" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" t="s">
+        <v>42</v>
+      </c>
+      <c r="F58" t="s">
+        <v>51</v>
+      </c>
+      <c r="G58" t="s">
+        <v>56</v>
+      </c>
+      <c r="H58">
         <v>1.33</v>
       </c>
-      <c r="I49">
+      <c r="I58">
         <v>1.33</v>
       </c>
-      <c r="J49">
+      <c r="J58">
         <v>18808.52</v>
       </c>
-      <c r="K49">
+      <c r="K58">
         <v>24890.25</v>
       </c>
-      <c r="L49">
+      <c r="L58">
         <v>125.08</v>
       </c>
-      <c r="M49">
+      <c r="M58">
         <v>24765.17</v>
       </c>
-      <c r="N49" t="s">
-        <v>53</v>
-      </c>
-      <c r="O49" t="s">
-        <v>55</v>
-      </c>
-      <c r="P49" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>59</v>
-      </c>
-      <c r="R49">
+      <c r="N58" t="s">
+        <v>59</v>
+      </c>
+      <c r="O58" t="s">
+        <v>62</v>
+      </c>
+      <c r="P58" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>66</v>
+      </c>
+      <c r="R58">
         <v>411</v>
       </c>
-      <c r="S49" t="s">
-        <v>107</v>
+      <c r="S58" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="S17" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="S18" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="S19" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="S20" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>